--- a/ring.xlsx
+++ b/ring.xlsx
@@ -1,93 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i00504429\Documents\DHBW\dhbw semester 6\Flowchart-RealtimeSystems\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F51CAB-D005-4B71-AD2A-7E0911C589D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
-  <si>
-    <t>TASK</t>
-  </si>
-  <si>
-    <t>ACTIVITY</t>
-  </si>
-  <si>
-    <t>CYCLES</t>
-  </si>
-  <si>
-    <t>PRIORITY</t>
-  </si>
-  <si>
-    <t>MUTEX_LIST</t>
-  </si>
-  <si>
-    <t>POSX</t>
-  </si>
-  <si>
-    <t>POSY</t>
-  </si>
-  <si>
-    <t>START</t>
-  </si>
-  <si>
-    <t>CON_NAME</t>
-  </si>
-  <si>
-    <t>END</t>
-  </si>
-  <si>
-    <t>INITIAL_VALUE</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>1?</t>
-  </si>
-  <si>
-    <t>2?</t>
-  </si>
-  <si>
-    <t>3?</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -102,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -426,154 +420,210 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>TASK</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ACTIVITY</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>CYCLES</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PRIORITY</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MUTEX_LIST</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>POSX</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>POSY</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr"/>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>START</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CON_NAME</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>END</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>INITIAL_VALUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>774</v>
+      </c>
+      <c r="G2" t="n">
+        <v>340</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1?</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2?</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>507</v>
+      </c>
+      <c r="G3" t="n">
+        <v>124</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2?</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>3?</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>594</v>
-      </c>
-      <c r="G2">
-        <v>297</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>464</v>
-      </c>
-      <c r="G3">
-        <v>160</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>353</v>
-      </c>
-      <c r="G4">
-        <v>286</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4">
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>282</v>
+      </c>
+      <c r="G4" t="n">
+        <v>320</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>3?</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1?</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
-<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{2988f0a4-524a-45f2-829d-417725fa4957}" enabled="1" method="Standard" siteId="{52daf2a9-3b73-4da4-ac6a-3f81adc92b7e}" contentBits="0" removed="0"/>
-</clbl:labelList>
 </file>
--- a/ring.xlsx
+++ b/ring.xlsx
@@ -508,7 +508,11 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>m312</t>
+        </is>
+      </c>
       <c r="F2" t="n">
         <v>774</v>
       </c>
@@ -552,7 +556,11 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>m312</t>
+        </is>
+      </c>
       <c r="F3" t="n">
         <v>507</v>
       </c>
@@ -596,7 +604,11 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>m312</t>
+        </is>
+      </c>
       <c r="F4" t="n">
         <v>282</v>
       </c>
